--- a/vote_app/mediafiles/statistic_files/79f2e7513bf39e3948076ad5e30ee0dffc59c95f.xlsx
+++ b/vote_app/mediafiles/statistic_files/79f2e7513bf39e3948076ad5e30ee0dffc59c95f.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="19">
   <si>
     <t>Выберите Филиал и объект питания</t>
   </si>
@@ -44,16 +44,28 @@
     <t>id</t>
   </si>
   <si>
-    <t>761663</t>
-  </si>
-  <si>
-    <t>Сургутское ЛПУМГ , Столовая №12 КС-4</t>
+    <t>26765</t>
+  </si>
+  <si>
+    <t>590623</t>
+  </si>
+  <si>
+    <t>УТТиСТ , Столовая №16 ТАТЦ</t>
+  </si>
+  <si>
+    <t>Тобольское ЛПУМГ , Столовая №2 КС-9</t>
   </si>
   <si>
     <t>Да</t>
   </si>
   <si>
+    <t>Нет</t>
+  </si>
+  <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
   <si>
     <t>Вопрос</t>
@@ -417,7 +429,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -457,28 +469,57 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -488,7 +529,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -499,10 +540,10 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -558,6 +599,62 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
         <v>7</v>
       </c>
     </row>
